--- a/手板报价单_2025-06-10.xlsx
+++ b/手板报价单_2025-06-10.xlsx
@@ -199,6 +199,31 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
+      <colOff>185737</colOff>
+      <row>10</row>
+      <rowOff>128587</rowOff>
+    </from>
+    <ext cx="428625" cy="314325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
       <colOff>0</colOff>
       <row>10</row>
       <rowOff>0</rowOff>
@@ -206,11 +231,36 @@
     <ext cx="428625" cy="314325"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>11</row>
+      <rowOff>80962</rowOff>
+    </from>
+    <ext cx="428625" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -231,11 +281,36 @@
     <ext cx="428625" cy="409575"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>12</row>
+      <rowOff>80962</rowOff>
+    </from>
+    <ext cx="428625" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -256,11 +331,36 @@
     <ext cx="428625" cy="409575"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>13</row>
+      <rowOff>80962</rowOff>
+    </from>
+    <ext cx="428625" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -281,11 +381,36 @@
     <ext cx="428625" cy="409575"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>14</row>
+      <rowOff>142875</rowOff>
+    </from>
+    <ext cx="428625" cy="285750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -306,11 +431,36 @@
     <ext cx="428625" cy="285750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>209550</colOff>
+      <row>15</row>
+      <rowOff>71437</rowOff>
+    </from>
+    <ext cx="381000" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -331,11 +481,36 @@
     <ext cx="381000" cy="428625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>219075</colOff>
+      <row>16</row>
+      <rowOff>76200</rowOff>
+    </from>
+    <ext cx="361950" cy="419100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -356,11 +531,36 @@
     <ext cx="361950" cy="419100"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>17</row>
+      <rowOff>104775</rowOff>
+    </from>
+    <ext cx="428625" cy="361950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -381,11 +581,36 @@
     <ext cx="428625" cy="361950"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>18</row>
+      <rowOff>133350</rowOff>
+    </from>
+    <ext cx="428625" cy="304800"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -406,11 +631,36 @@
     <ext cx="428625" cy="304800"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>19</row>
+      <rowOff>85725</rowOff>
+    </from>
+    <ext cx="428625" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -431,11 +681,36 @@
     <ext cx="428625" cy="400050"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>20</row>
+      <rowOff>128587</rowOff>
+    </from>
+    <ext cx="428625" cy="314325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -456,11 +731,36 @@
     <ext cx="428625" cy="314325"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>21</row>
+      <rowOff>128587</rowOff>
+    </from>
+    <ext cx="428625" cy="314325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -481,11 +781,36 @@
     <ext cx="428625" cy="314325"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>22</row>
+      <rowOff>95250</rowOff>
+    </from>
+    <ext cx="428625" cy="381000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -506,11 +831,36 @@
     <ext cx="428625" cy="381000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>23</row>
+      <rowOff>85725</rowOff>
+    </from>
+    <ext cx="428625" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -531,11 +881,36 @@
     <ext cx="428625" cy="400050"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>204787</colOff>
+      <row>24</row>
+      <rowOff>71437</rowOff>
+    </from>
+    <ext cx="390525" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -556,11 +931,36 @@
     <ext cx="390525" cy="428625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>25</row>
+      <rowOff>109537</rowOff>
+    </from>
+    <ext cx="428625" cy="352425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -581,11 +981,36 @@
     <ext cx="428625" cy="352425"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>195262</colOff>
+      <row>26</row>
+      <rowOff>71437</rowOff>
+    </from>
+    <ext cx="409575" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -606,11 +1031,36 @@
     <ext cx="409575" cy="428625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>204787</colOff>
+      <row>27</row>
+      <rowOff>71437</rowOff>
+    </from>
+    <ext cx="390525" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -631,11 +1081,36 @@
     <ext cx="390525" cy="428625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>233362</colOff>
+      <row>28</row>
+      <rowOff>71437</rowOff>
+    </from>
+    <ext cx="333375" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -656,11 +1131,36 @@
     <ext cx="333375" cy="428625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="19" name="Image 19" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>29</row>
+      <rowOff>100012</rowOff>
+    </from>
+    <ext cx="428625" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -681,11 +1181,36 @@
     <ext cx="428625" cy="371475"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>30</row>
+      <rowOff>119062</rowOff>
+    </from>
+    <ext cx="428625" cy="333375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -706,11 +1231,36 @@
     <ext cx="428625" cy="333375"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>31</row>
+      <rowOff>133350</rowOff>
+    </from>
+    <ext cx="428625" cy="304800"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -731,11 +1281,36 @@
     <ext cx="428625" cy="304800"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>32</row>
+      <rowOff>219075</rowOff>
+    </from>
+    <ext cx="428625" cy="133350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -756,11 +1331,36 @@
     <ext cx="428625" cy="133350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="23" name="Image 23" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>33</row>
+      <rowOff>157162</rowOff>
+    </from>
+    <ext cx="428625" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -781,11 +1381,36 @@
     <ext cx="428625" cy="257175"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="24" name="Image 24" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>190500</colOff>
+      <row>34</row>
+      <rowOff>71437</rowOff>
+    </from>
+    <ext cx="419100" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -806,11 +1431,36 @@
     <ext cx="419100" cy="428625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="25" name="Image 25" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>204787</colOff>
+      <row>35</row>
+      <rowOff>71437</rowOff>
+    </from>
+    <ext cx="390525" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -831,11 +1481,36 @@
     <ext cx="390525" cy="428625"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="26" name="Image 26" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>36</row>
+      <rowOff>109537</rowOff>
+    </from>
+    <ext cx="428625" cy="352425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId53"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -856,11 +1531,36 @@
     <ext cx="428625" cy="352425"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="27" name="Image 27" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>37</row>
+      <rowOff>80962</rowOff>
+    </from>
+    <ext cx="428625" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId55"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -881,11 +1581,36 @@
     <ext cx="428625" cy="409575"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="28" name="Image 28" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>38</row>
+      <rowOff>152400</rowOff>
+    </from>
+    <ext cx="428625" cy="266700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId57"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -906,11 +1631,36 @@
     <ext cx="428625" cy="266700"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>185737</colOff>
+      <row>39</row>
+      <rowOff>119062</rowOff>
+    </from>
+    <ext cx="428625" cy="333375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId59"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -931,11 +1681,11 @@
     <ext cx="428625" cy="333375"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>

--- a/手板报价单_2025-06-10.xlsx
+++ b/手板报价单_2025-06-10.xlsx
@@ -192,1511 +192,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>10</row>
-      <rowOff>128587</rowOff>
-    </from>
-    <ext cx="428625" cy="314325"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>10</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="314325"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>11</row>
-      <rowOff>80962</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>12</row>
-      <rowOff>80962</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>13</row>
-      <rowOff>80962</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>13</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>14</row>
-      <rowOff>142875</rowOff>
-    </from>
-    <ext cx="428625" cy="285750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="285750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>209550</colOff>
-      <row>15</row>
-      <rowOff>71437</rowOff>
-    </from>
-    <ext cx="381000" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="381000" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>219075</colOff>
-      <row>16</row>
-      <rowOff>76200</rowOff>
-    </from>
-    <ext cx="361950" cy="419100"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="361950" cy="419100"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>17</row>
-      <rowOff>104775</rowOff>
-    </from>
-    <ext cx="428625" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="361950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>18</row>
-      <rowOff>133350</rowOff>
-    </from>
-    <ext cx="428625" cy="304800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="304800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>19</row>
-      <rowOff>85725</rowOff>
-    </from>
-    <ext cx="428625" cy="400050"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="19" name="Image 19" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="400050"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>20</row>
-      <rowOff>128587</rowOff>
-    </from>
-    <ext cx="428625" cy="314325"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="314325"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>21</row>
-      <rowOff>128587</rowOff>
-    </from>
-    <ext cx="428625" cy="314325"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="23" name="Image 23" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="314325"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="24" name="Image 24" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>22</row>
-      <rowOff>95250</rowOff>
-    </from>
-    <ext cx="428625" cy="381000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="25" name="Image 25" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="381000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="26" name="Image 26" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>23</row>
-      <rowOff>85725</rowOff>
-    </from>
-    <ext cx="428625" cy="400050"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="27" name="Image 27" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>23</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="400050"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="28" name="Image 28" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>204787</colOff>
-      <row>24</row>
-      <rowOff>71437</rowOff>
-    </from>
-    <ext cx="390525" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="390525" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>25</row>
-      <rowOff>109537</rowOff>
-    </from>
-    <ext cx="428625" cy="352425"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="31" name="Image 31" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="352425"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="32" name="Image 32" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>195262</colOff>
-      <row>26</row>
-      <rowOff>71437</rowOff>
-    </from>
-    <ext cx="409575" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="409575" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="34" name="Image 34" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>204787</colOff>
-      <row>27</row>
-      <rowOff>71437</rowOff>
-    </from>
-    <ext cx="390525" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="35" name="Image 35" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>27</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="390525" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="36" name="Image 36" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>233362</colOff>
-      <row>28</row>
-      <rowOff>71437</rowOff>
-    </from>
-    <ext cx="333375" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="37" name="Image 37" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>28</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="333375" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="38" name="Image 38" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>29</row>
-      <rowOff>100012</rowOff>
-    </from>
-    <ext cx="428625" cy="371475"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="39" name="Image 39" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>29</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="371475"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="40" name="Image 40" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>30</row>
-      <rowOff>119062</rowOff>
-    </from>
-    <ext cx="428625" cy="333375"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="41" name="Image 41" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="333375"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="42" name="Image 42" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>31</row>
-      <rowOff>133350</rowOff>
-    </from>
-    <ext cx="428625" cy="304800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="43" name="Image 43" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="304800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="44" name="Image 44" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>32</row>
-      <rowOff>219075</rowOff>
-    </from>
-    <ext cx="428625" cy="133350"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="45" name="Image 45" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>32</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="133350"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="46" name="Image 46" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>33</row>
-      <rowOff>157162</rowOff>
-    </from>
-    <ext cx="428625" cy="257175"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="47" name="Image 47" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>33</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="257175"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="48" name="Image 48" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>190500</colOff>
-      <row>34</row>
-      <rowOff>71437</rowOff>
-    </from>
-    <ext cx="419100" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="49" name="Image 49" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>34</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="419100" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="50" name="Image 50" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>204787</colOff>
-      <row>35</row>
-      <rowOff>71437</rowOff>
-    </from>
-    <ext cx="390525" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="51" name="Image 51" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>35</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="390525" cy="428625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="52" name="Image 52" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>36</row>
-      <rowOff>109537</rowOff>
-    </from>
-    <ext cx="428625" cy="352425"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="53" name="Image 53" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>36</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="352425"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="54" name="Image 54" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>37</row>
-      <rowOff>80962</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="55" name="Image 55" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>37</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="56" name="Image 56" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>38</row>
-      <rowOff>152400</rowOff>
-    </from>
-    <ext cx="428625" cy="266700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="57" name="Image 57" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>38</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="266700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="58" name="Image 58" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>185737</colOff>
-      <row>39</row>
-      <rowOff>119062</rowOff>
-    </from>
-    <ext cx="428625" cy="333375"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="59" name="Image 59" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="333375"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="60" name="Image 60" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3235,6 +1730,5 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/手板报价单_2025-06-10.xlsx
+++ b/手板报价单_2025-06-10.xlsx
@@ -192,6 +192,761 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="323850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="409575" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="352425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="390525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="457200" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="438150" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="371475" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="142875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="285750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="295275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,5 +2485,6 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/手板报价单_2025-06-10.xlsx
+++ b/手板报价单_2025-06-10.xlsx
@@ -199,11 +199,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>10</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="342900"/>
+      <rowOff>209550</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -224,11 +224,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="457200"/>
+      <rowOff>152400</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -249,11 +249,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>166687</colOff>
       <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="466725" cy="457200"/>
+      <rowOff>152400</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -274,11 +274,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>13</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="447675"/>
+      <rowOff>157162</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -299,11 +299,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="323850"/>
+      <rowOff>219075</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -324,11 +324,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>185737</colOff>
       <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="476250"/>
+      <rowOff>142875</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -349,11 +349,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>195262</colOff>
       <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="409575" cy="476250"/>
+      <rowOff>142875</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -374,11 +374,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="409575"/>
+      <rowOff>176212</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -399,11 +399,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="333375"/>
+      <rowOff>214312</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -424,11 +424,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>166687</colOff>
       <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="466725" cy="447675"/>
+      <rowOff>157162</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -449,11 +449,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>166687</colOff>
       <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="466725" cy="342900"/>
+      <rowOff>209550</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -474,11 +474,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="352425"/>
+      <rowOff>204787</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -499,11 +499,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="428625"/>
+      <rowOff>166687</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -524,11 +524,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>23</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="447675"/>
+      <rowOff>157162</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -549,11 +549,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>185737</colOff>
       <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="476250"/>
+      <rowOff>142875</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -574,11 +574,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="390525"/>
+      <rowOff>185737</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -599,11 +599,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>171450</colOff>
       <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="457200" cy="476250"/>
+      <rowOff>142875</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="17" name="Image 17" descr="Picture"/>
@@ -624,11 +624,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>180975</colOff>
       <row>27</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="438150" cy="476250"/>
+      <rowOff>142875</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="18" name="Image 18" descr="Picture"/>
@@ -649,11 +649,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>214312</colOff>
       <row>28</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="371475" cy="476250"/>
+      <rowOff>142875</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -674,11 +674,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>29</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="409575"/>
+      <rowOff>176212</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="20" name="Image 20" descr="Picture"/>
@@ -699,11 +699,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="371475"/>
+      <rowOff>195262</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="21" name="Image 21" descr="Picture"/>
@@ -724,11 +724,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="342900"/>
+      <rowOff>209550</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="22" name="Image 22" descr="Picture"/>
@@ -749,11 +749,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>32</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="142875"/>
+      <rowOff>309562</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="23" name="Image 23" descr="Picture"/>
@@ -774,11 +774,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>33</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="285750"/>
+      <rowOff>238125</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="24" name="Image 24" descr="Picture"/>
@@ -799,11 +799,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>166687</colOff>
       <row>34</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="466725" cy="476250"/>
+      <rowOff>142875</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="25" name="Image 25" descr="Picture"/>
@@ -824,11 +824,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>185737</colOff>
       <row>35</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="428625" cy="476250"/>
+      <rowOff>142875</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="26" name="Image 26" descr="Picture"/>
@@ -849,11 +849,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>36</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="400050"/>
+      <rowOff>180975</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="27" name="Image 27" descr="Picture"/>
@@ -874,11 +874,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>37</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="457200"/>
+      <rowOff>152400</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="28" name="Image 28" descr="Picture"/>
@@ -899,11 +899,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>38</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="295275"/>
+      <rowOff>233362</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="29" name="Image 29" descr="Picture"/>
@@ -924,11 +924,11 @@
   <oneCellAnchor>
     <from>
       <col>1</col>
-      <colOff>0</colOff>
+      <colOff>161925</colOff>
       <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="371475"/>
+      <rowOff>195262</rowOff>
+    </from>
+    <ext cx="0" cy="0"/>
     <pic>
       <nvPicPr>
         <cNvPr id="30" name="Image 30" descr="Picture"/>

--- a/手板报价单_2025-06-10.xlsx
+++ b/手板报价单_2025-06-10.xlsx
@@ -1258,7 +1258,7 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>甲方:杭州微信软件有限公司</t>
+          <t> </t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/手板报价单_2025-06-10.xlsx
+++ b/手板报价单_2025-06-10.xlsx
@@ -183,6 +183,761 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="323850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="409575" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="352425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="390525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="457200" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="438150" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="371475" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="142875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="285750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="295275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,22 +1379,23 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="inlineStr"/>
-      <c r="C9" s="6" t="n">
-        <v>190169051</v>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>电池仓</t>
+        </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0</v>
@@ -657,22 +1413,21 @@
       <c r="B10" s="5" t="inlineStr"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>da-14-010578</t>
+          <t>电池盖</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -681,11 +1436,7 @@
         <f>F10*G10</f>
         <v/>
       </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="I10" s="6" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="5" t="n">
@@ -694,22 +1445,21 @@
       <c r="B11" s="5" t="inlineStr"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>da-14-010579</t>
+          <t>前壳</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -718,11 +1468,7 @@
         <f>F11*G11</f>
         <v/>
       </c>
-      <c r="I11" s="6" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="I11" s="6" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="5" t="n">
@@ -731,22 +1477,21 @@
       <c r="B12" s="5" t="inlineStr"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>da-14-010592</t>
+          <t>按键1</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0</v>
@@ -755,11 +1500,7 @@
         <f>F12*G12</f>
         <v/>
       </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="I12" s="6" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="5" t="n">
@@ -768,22 +1509,21 @@
       <c r="B13" s="5" t="inlineStr"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>da-14-010634</t>
+          <t>按键2</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -792,11 +1532,7 @@
         <f>F13*G13</f>
         <v/>
       </c>
-      <c r="I13" s="6" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="I13" s="6" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="5" t="n">
@@ -805,22 +1541,21 @@
       <c r="B14" s="5" t="inlineStr"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>xieyijiexi</t>
+          <t>按键3</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -829,95 +1564,859 @@
         <f>F14*G14</f>
         <v/>
       </c>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr"/>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>按键板</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <f>F15*G15</f>
+        <v/>
+      </c>
+      <c r="I15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr"/>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>电源板</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <f>F16*G16</f>
+        <v/>
+      </c>
+      <c r="I16" s="6" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr"/>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>负极簧片</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <f>F17*G17</f>
+        <v/>
+      </c>
+      <c r="I17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr"/>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>负极接线片</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <f>F18*G18</f>
+        <v/>
+      </c>
+      <c r="I18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr"/>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>接口板</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <f>F19*G19</f>
+        <v/>
+      </c>
+      <c r="I19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr"/>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>激光装饰片</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <f>F20*G20</f>
+        <v/>
+      </c>
+      <c r="I20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr"/>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>镜头</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <f>F21*G21</f>
+        <v/>
+      </c>
+      <c r="I21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr"/>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>镜头转接件1</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <f>F22*G22</f>
+        <v/>
+      </c>
+      <c r="I22" s="6" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr"/>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>镜头转接件2</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <f>F23*G23</f>
+        <v/>
+      </c>
+      <c r="I23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr"/>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>镜头转接件3</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <f>F24*G24</f>
+        <v/>
+      </c>
+      <c r="I24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>机芯支架</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <f>F25*G25</f>
+        <v/>
+      </c>
+      <c r="I25" s="6" t="inlineStr"/>
+    </row>
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr"/>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>散热板</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <f>F26*G26</f>
+        <v/>
+      </c>
+      <c r="I26" s="6" t="inlineStr"/>
+    </row>
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr"/>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>手柄</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>F27*G27</f>
+        <v/>
+      </c>
+      <c r="I27" s="6" t="inlineStr"/>
+    </row>
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr"/>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>探测器板</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>F28*G28</f>
+        <v/>
+      </c>
+      <c r="I28" s="6" t="inlineStr"/>
+    </row>
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr"/>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>显示屏</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <f>F29*G29</f>
+        <v/>
+      </c>
+      <c r="I29" s="6" t="inlineStr"/>
+    </row>
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr"/>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>显示屏后壳</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <f>F30*G30</f>
+        <v/>
+      </c>
+      <c r="I30" s="6" t="inlineStr"/>
+    </row>
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr"/>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>右饰片</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>F31*G31</f>
+        <v/>
+      </c>
+      <c r="I31" s="6" t="inlineStr"/>
+    </row>
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr"/>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>左饰片</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>F32*G32</f>
+        <v/>
+      </c>
+      <c r="I32" s="6" t="inlineStr"/>
+    </row>
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr"/>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>装饰片1</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <f>F33*G33</f>
+        <v/>
+      </c>
+      <c r="I33" s="6" t="inlineStr"/>
+    </row>
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr"/>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>装饰片2</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <f>F34*G34</f>
+        <v/>
+      </c>
+      <c r="I34" s="6" t="inlineStr"/>
+    </row>
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr"/>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>转接座</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <f>F35*G35</f>
+        <v/>
+      </c>
+      <c r="I35" s="6" t="inlineStr"/>
+    </row>
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr"/>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>转轴座</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <f>F36*G36</f>
+        <v/>
+      </c>
+      <c r="I36" s="6" t="inlineStr"/>
+    </row>
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr"/>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>主板</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <f>F37*G37</f>
+        <v/>
+      </c>
+      <c r="I37" s="6" t="inlineStr"/>
+    </row>
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr"/>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>主壳体</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <f>F38*G38</f>
+        <v/>
+      </c>
+      <c r="I38" s="6" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
         <is>
           <t>合计:</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="H15" s="9">
-        <f>SUM(H9:H14)</f>
-        <v/>
-      </c>
-      <c r="I15" s="8" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="B39" s="8" t="n"/>
+      <c r="C39" s="8" t="n"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="n"/>
+      <c r="H39" s="9">
+        <f>SUM(H9:H38)</f>
+        <v/>
+      </c>
+      <c r="I39" s="8" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>未 税 总 价: (人民币)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>手板加工周期:</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>付款方式: 月结30天</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>交货日期: 确认后 (7) 日内完成</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>验收标准: 依据甲方2D、3D、说明文档等相关文件进行验收</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>备 注:</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>此报价单适用于所有杭州海康威视科技有限公司的子公司及关联公司。</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>双方以含税价格结算，具体税率按国家税务政策规定，供应商需提供合格的增值税发票，否则按基</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="G27" s="10" t="inlineStr">
+    <row r="51">
+      <c r="G51" s="10" t="inlineStr">
         <is>
           <t>乙方签名确认</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="G28" s="11" t="inlineStr">
+    <row r="52">
+      <c r="G52" s="11" t="inlineStr">
         <is>
           <t>2025-06-10</t>
         </is>
@@ -925,31 +2424,32 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="A46:I46"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A18:I18"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="A21:I21"/>
     <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A43:I43"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A44:I44"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A48:I48"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="G27:I27"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A45:I45"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>